--- a/rbfOsdv.xlsx
+++ b/rbfOsdv.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>QuestionID</t>
   </si>
@@ -35,12 +35,24 @@
     <t>Question</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
     <t>certifiedCircumciser</t>
   </si>
   <si>
     <t>Is there a certified Circumciser</t>
   </si>
   <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Adequacy of Staffing</t>
+  </si>
+  <si>
     <t>is_there_a_trained_vmmc_assistant</t>
   </si>
   <si>
@@ -83,6 +95,12 @@
     <t>Is there any visible signage or posters indicating that VMMC services are offered at the facility?</t>
   </si>
   <si>
+    <t>Facility, Supplies, Infection Prevention Control  and Emergency Management</t>
+  </si>
+  <si>
+    <t>Facility and Supplies</t>
+  </si>
+  <si>
     <t>vmmcGuidelines</t>
   </si>
   <si>
@@ -98,15 +116,13 @@
     <t>operatingTheatrePrivacy</t>
   </si>
   <si>
-    <t>#### Operating Theatre(s)
-Is there visual privacy( other clients will not see, no human traffic through the room ; screens or partitions are acceptable and adequate lighting in the VMMC procedure room?</t>
+    <t>Is there visual privacy( other clients will not see, no human traffic through the room ; screens or partitions are acceptable and adequate lighting in the VMMC procedure room?</t>
   </si>
   <si>
     <t>runningWater</t>
   </si>
   <si>
-    <t>#### Surgical Scrub
-Is there running water ( this includes clean water that runs from a tank, bucket or basin) and hand washing supplies ( hand soap or gel) in the VMMC procedure room?</t>
+    <t>Is there running water ( this includes clean water that runs from a tank, bucket or basin) and hand washing supplies ( hand soap or gel) in the VMMC procedure room?</t>
   </si>
   <si>
     <t>sterileKitsStorage</t>
@@ -118,15 +134,13 @@
     <t>bins</t>
   </si>
   <si>
-    <t>#### Waste Management
-Does the facility have color-coded bins/bin-liners , red,yellow and black for different waste types?</t>
+    <t>Does the facility have color-coded bins/bin-liners , red,yellow and black for different waste types?</t>
   </si>
   <si>
     <t>incinerator</t>
   </si>
   <si>
-    <t>#### Waste Management
-Does the facility have a functional incinerator or Otto-way pit for clinical waste disposal</t>
+    <t>Does the facility have a functional incinerator or Otto-way pit for clinical waste disposal</t>
   </si>
   <si>
     <t>rbfFacilityPlan</t>
@@ -147,6 +161,9 @@
     <t>Are guidelines or protocols for medical emergencies displayed in the procedure / recovery room and clearly visible?</t>
   </si>
   <si>
+    <t>Infection Prevention Control  and Emergency Management</t>
+  </si>
+  <si>
     <t>emergencyCart</t>
   </si>
   <si>
@@ -174,22 +191,22 @@
     <t>recordsSecure</t>
   </si>
   <si>
-    <t xml:space="preserve">Are records kept in a safe, secure place ?
- </t>
+    <t>Are records kept in a safe, secure place ?</t>
+  </si>
+  <si>
+    <t>Client Record Review</t>
   </si>
   <si>
     <t>recordsFilling</t>
   </si>
   <si>
-    <t xml:space="preserve">Are records properly filed ?
-</t>
+    <t>Are records properly filed ?</t>
   </si>
   <si>
     <t>copy-1-of-recordsFilling</t>
   </si>
   <si>
-    <t xml:space="preserve">Are all selected CIF Forms (sample of 10) filled in completely. Check for the following 
-</t>
+    <t>Are all selected CIF Forms (sample of 10) filled in completely. Check for the following</t>
   </si>
   <si>
     <t>consentForms</t>
@@ -201,7 +218,7 @@
     <t>question1</t>
   </si>
   <si>
-    <t xml:space="preserve">Is there proper Adverse Event documentation in the following tools: AE Register , MRF and VMMC register </t>
+    <t>Is there proper Adverse Event documentation in the following tools: AE Register , MRF and VMMC register</t>
   </si>
   <si>
     <t>vmmcMinutes</t>
@@ -214,6 +231,24 @@
   </si>
   <si>
     <t>Comments and Recommendation (Client Record Review)</t>
+  </si>
+  <si>
+    <t>month_year_repeat_group</t>
+  </si>
+  <si>
+    <t>Triangulating Data across VMMC source documents</t>
+  </si>
+  <si>
+    <t>Data Triangulation</t>
+  </si>
+  <si>
+    <t>recommendation_aspects</t>
+  </si>
+  <si>
+    <t>Overall Recommendations</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
   </si>
 </sst>
 </file>
@@ -226,7 +261,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +270,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,10 +285,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -712,28 +758,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,125 +779,147 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1208,342 +1267,471 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="75.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="75.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="183.111111111111" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" customWidth="1"/>
+    <col min="4" max="4" width="53.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C24" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B25" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B26" s="5" t="s">
         <v>59</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="13.8" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/rbfOsdv.xlsx
+++ b/rbfOsdv.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>QuestionID</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Is there any visible signage or posters indicating that VMMC services are offered at the facility?</t>
   </si>
   <si>
-    <t>Facility, Supplies, Infection Prevention Control  and Emergency Management</t>
+    <t>Facilities</t>
   </si>
   <si>
     <t>Facility and Supplies</t>
@@ -185,7 +185,7 @@
     <t>facilityComment</t>
   </si>
   <si>
-    <t>Comment on Findings ( Facility, Supplies , IPC and Emergency Management)</t>
+    <t>Comments and Recommendations</t>
   </si>
   <si>
     <t>recordsSecure</t>
@@ -240,15 +240,6 @@
   </si>
   <si>
     <t>Data Triangulation</t>
-  </si>
-  <si>
-    <t>recommendation_aspects</t>
-  </si>
-  <si>
-    <t>Overall Recommendations</t>
-  </si>
-  <si>
-    <t>Recommendations</t>
   </si>
 </sst>
 </file>
@@ -903,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,7 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1267,10 +1257,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1403,7 +1393,7 @@
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1"/>
@@ -1418,7 +1408,7 @@
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1"/>
@@ -1433,7 +1423,7 @@
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1"/>
@@ -1442,13 +1432,13 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1"/>
@@ -1463,86 +1453,86 @@
       <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1553,10 +1543,10 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1567,10 +1557,10 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1581,10 +1571,10 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1595,10 +1585,10 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1609,129 +1599,115 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/rbfOsdv.xlsx
+++ b/rbfOsdv.xlsx
@@ -107,7 +107,7 @@
     <t>Are the following guidelines available onsite</t>
   </si>
   <si>
-    <t>darkClerk.1</t>
+    <t>spaceandClientFlow</t>
   </si>
   <si>
     <t>Are space and client flow arranged to allow all the following steps to take place without affecting client privacy</t>
@@ -894,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -902,6 +902,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1259,8 +1260,8 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1414,7 +1415,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
@@ -1432,7 +1433,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1476,7 +1477,7 @@
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1697,7 +1698,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="13.8" spans="1:4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="1" t="s">

--- a/rbfOsdv.xlsx
+++ b/rbfOsdv.xlsx
@@ -59,7 +59,7 @@
     <t>Is there a trained VMMC Assistant</t>
   </si>
   <si>
-    <t>darkClerk</t>
+    <t>vmmcDataClerk</t>
   </si>
   <si>
     <t>Is there a Health Worker trained as a Data Clerk/Receptionist</t>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/rbfOsdv.xlsx
+++ b/rbfOsdv.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>QuestionID</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Data Triangulation</t>
+  </si>
+  <si>
+    <t>comments_and_recommendations_data_triangulation</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1711,6 +1714,20 @@
         <v>70</v>
       </c>
     </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
